--- a/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="89">
   <si>
     <t>FICHA</t>
   </si>
@@ -937,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1044,6 +1044,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1797,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,26 +2188,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="17">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2221,7 +2204,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,6 +2255,17 @@
       </c>
       <c r="C4" s="15">
         <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="15">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,7 +2300,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2651,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,6 +2661,7 @@
     <col min="6" max="7" width="17.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="64.140625" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3111,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="C22" s="37"/>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="37"/>
@@ -3130,10 +3125,10 @@
         <v>46</v>
       </c>
       <c r="C23" s="37"/>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="53" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="37"/>
@@ -3199,10 +3194,10 @@
       <c r="C26" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="42"/>
@@ -3218,10 +3213,10 @@
         <v>52</v>
       </c>
       <c r="C27" s="42"/>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="55" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="42"/>
@@ -3313,10 +3308,10 @@
         <v>54</v>
       </c>
       <c r="C31" s="43"/>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="58" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="43"/>
@@ -3332,10 +3327,10 @@
         <v>54</v>
       </c>
       <c r="C32" s="43"/>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="58" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="43"/>
@@ -3534,10 +3529,10 @@
         <v>57</v>
       </c>
       <c r="C42" s="42"/>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F42" s="42"/>
@@ -3553,10 +3548,10 @@
         <v>57</v>
       </c>
       <c r="C43" s="42"/>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="55" t="s">
         <v>29</v>
       </c>
       <c r="F43" s="42"/>
@@ -3636,10 +3631,10 @@
         <v>57</v>
       </c>
       <c r="C47" s="42"/>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F47" s="42"/>
@@ -3655,10 +3650,10 @@
         <v>57</v>
       </c>
       <c r="C48" s="33"/>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="55" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="33"/>
@@ -3814,10 +3809,10 @@
         <v>64</v>
       </c>
       <c r="C56" s="33"/>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="55" t="s">
         <v>24</v>
       </c>
       <c r="F56" s="33"/>
@@ -3835,10 +3830,10 @@
         <v>64</v>
       </c>
       <c r="C57" s="33"/>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="55" t="s">
         <v>29</v>
       </c>
       <c r="F57" s="33"/>
@@ -3853,29 +3848,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="38">
-        <v>16</v>
-      </c>
+      <c r="C58" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
@@ -3892,13 +3880,13 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J59" s="38">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3916,13 +3904,13 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J60" s="38">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3940,13 +3928,13 @@
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J61" s="38">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3954,21 +3942,23 @@
         <v>37</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="H62" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I62" s="16" t="s">
         <v>21</v>
       </c>
       <c r="J62" s="38">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3979,19 +3969,43 @@
         <v>28</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="38">
+      <c r="I64" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="38">
         <v>21</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="79">
   <si>
     <t>FICHA</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Las revoluciones de 1917</t>
   </si>
   <si>
-    <t>La revolución rusa de 1917</t>
-  </si>
-  <si>
     <t>El nacimiento de la URSS</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t xml:space="preserve">La posguerra europea </t>
   </si>
   <si>
-    <t>Conoce las características de la Europa de entreguerras.</t>
-  </si>
-  <si>
     <t>Conoce las características de la Europa de entreguerras</t>
   </si>
   <si>
@@ -223,24 +217,12 @@
     <t>La Alemania nazi</t>
   </si>
   <si>
-    <t>Profundiza: La Alemania nazi</t>
-  </si>
-  <si>
     <t>Cronología: El periodo de entreguerras</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La Alemania nazi.</t>
-  </si>
-  <si>
-    <t>Competencias: Comentario de un texto como fuente histórica.</t>
-  </si>
-  <si>
     <t>Proyecto: Análisis del trato a los judíos en la Alemania nazi</t>
   </si>
   <si>
-    <t>Elabora un texto a partir de un mapa mental.</t>
-  </si>
-  <si>
     <t>Actividad sobre los felices años 20</t>
   </si>
   <si>
@@ -250,42 +232,21 @@
     <t>La Revolución rusa de 1917</t>
   </si>
   <si>
-    <t>Título: Los felices años 20</t>
-  </si>
-  <si>
     <t>El período de entreguerras</t>
   </si>
   <si>
     <t>CS_10_07</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La revolución rusa</t>
-  </si>
-  <si>
-    <t>Los felices años 20</t>
-  </si>
-  <si>
     <t>La Italia fascista</t>
   </si>
   <si>
-    <t>Distingue las características del fascismo</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La Italia fascista</t>
   </si>
   <si>
-    <t>Cronología: el período de entreguerras</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: La Alemania nazi</t>
   </si>
   <si>
-    <t>Competencias: comentario de un texto como fuente histórica</t>
-  </si>
-  <si>
-    <t>Proyecto: análisis del trato a los judíos en la Alemania nazi</t>
-  </si>
-  <si>
     <t>La realidad de las décadas de 1920 y 1930 permite descubrir cómo cambió el mundo al acabar la Gran Guerra y qué condujo a la Segunda Guerra Mundial.</t>
   </si>
   <si>
@@ -293,6 +254,15 @@
   </si>
   <si>
     <t>El periodo de entreguerras</t>
+  </si>
+  <si>
+    <t>La ideología de Adolf Hitler</t>
+  </si>
+  <si>
+    <t>Competencias: Comentario de un texto como fuente histórica</t>
+  </si>
+  <si>
+    <t>Autoevaluación</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1744,7 +1714,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1760,7 +1730,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,13 +1816,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
@@ -1872,13 +1842,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F3" s="17">
         <v>2</v>
@@ -1892,13 +1862,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1912,13 +1882,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F5" s="17">
         <v>4</v>
@@ -1932,13 +1902,13 @@
         <v>19</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F6" s="17">
         <v>5</v>
@@ -1952,13 +1922,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F7" s="17">
         <v>6</v>
@@ -1972,13 +1942,13 @@
         <v>19</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F8" s="17">
         <v>7</v>
@@ -1992,13 +1962,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F9" s="17">
         <v>8</v>
@@ -2013,13 +1983,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F10" s="17">
         <v>9</v>
@@ -2034,13 +2004,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F11" s="17">
         <v>10</v>
@@ -2055,13 +2025,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F12" s="17">
         <v>11</v>
@@ -2076,13 +2046,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F13" s="17">
         <v>12</v>
@@ -2096,13 +2066,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F14" s="17">
         <v>13</v>
@@ -2116,13 +2086,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F15" s="17">
         <v>14</v>
@@ -2136,13 +2106,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F16" s="17">
         <v>15</v>
@@ -2156,13 +2126,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F17" s="17">
         <v>16</v>
@@ -2176,13 +2146,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F18" s="17">
         <v>17</v>
@@ -2190,7 +2160,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2204,7 +2174,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2196,7 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>21</v>
@@ -2237,7 +2207,7 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>21</v>
@@ -2259,7 +2229,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -2300,7 +2270,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>20</v>
@@ -2337,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>20</v>
@@ -2348,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>20</v>
@@ -2359,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>20</v>
@@ -2370,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>20</v>
@@ -2381,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>20</v>
@@ -2392,7 +2362,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -2403,7 +2373,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -2414,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -2425,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -2436,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
@@ -2447,7 +2417,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -2459,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -2470,7 +2440,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -2481,7 +2451,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -2492,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -2503,7 +2473,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
@@ -2514,7 +2484,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
@@ -2525,7 +2495,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>21</v>
@@ -2647,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView topLeftCell="E43" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,7 +2813,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="33" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>20</v>
@@ -2861,7 +2831,7 @@
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>24</v>
@@ -2880,10 +2850,10 @@
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>43</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
@@ -2899,7 +2869,7 @@
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>24</v>
@@ -2922,7 +2892,7 @@
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>25</v>
@@ -2968,7 +2938,7 @@
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>20</v>
@@ -2982,7 +2952,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>24</v>
@@ -3001,7 +2971,7 @@
         <v>37</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>29</v>
@@ -3013,7 +2983,7 @@
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
       <c r="H17" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I17" s="41" t="s">
         <v>20</v>
@@ -3027,11 +2997,11 @@
         <v>37</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="37" t="s">
         <v>24</v>
@@ -3046,11 +3016,11 @@
         <v>37</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>30</v>
@@ -3065,11 +3035,11 @@
         <v>37</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>24</v>
@@ -3084,11 +3054,11 @@
         <v>37</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="37" t="s">
         <v>25</v>
@@ -3103,7 +3073,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="50" t="s">
@@ -3122,7 +3092,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="50" t="s">
@@ -3134,7 +3104,7 @@
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="41" t="s">
         <v>20</v>
@@ -3148,7 +3118,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>24</v>
@@ -3165,7 +3135,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>26</v>
@@ -3175,7 +3145,7 @@
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" s="42" t="s">
         <v>20</v>
@@ -3189,7 +3159,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>36</v>
@@ -3210,7 +3180,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="44" t="s">
@@ -3222,7 +3192,7 @@
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I27" s="42" t="s">
         <v>20</v>
@@ -3236,7 +3206,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="43" t="s">
         <v>24</v>
@@ -3257,7 +3227,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="43" t="s">
         <v>26</v>
@@ -3267,7 +3237,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="I29" s="43" t="s">
         <v>20</v>
@@ -3281,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C30" s="43" t="s">
         <v>29</v>
@@ -3291,7 +3261,7 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>20</v>
@@ -3305,7 +3275,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="49" t="s">
@@ -3324,7 +3294,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="49" t="s">
@@ -3336,7 +3306,7 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I32" s="43" t="s">
         <v>20</v>
@@ -3350,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>24</v>
@@ -3367,11 +3337,11 @@
         <v>37</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>24</v>
@@ -3386,11 +3356,11 @@
         <v>37</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>25</v>
@@ -3405,11 +3375,11 @@
         <v>37</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>24</v>
@@ -3424,11 +3394,11 @@
         <v>37</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>30</v>
@@ -3443,11 +3413,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38" s="42"/>
       <c r="D38" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>24</v>
@@ -3462,11 +3432,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>26</v>
@@ -3474,7 +3444,7 @@
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I39" s="42" t="s">
         <v>20</v>
@@ -3488,11 +3458,11 @@
         <v>37</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>24</v>
@@ -3507,11 +3477,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E41" s="42" t="s">
         <v>25</v>
@@ -3526,7 +3496,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="44" t="s">
@@ -3545,7 +3515,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="44" t="s">
@@ -3557,7 +3527,7 @@
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I43" s="42" t="s">
         <v>20</v>
@@ -3571,11 +3541,11 @@
         <v>37</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>24</v>
@@ -3590,11 +3560,11 @@
         <v>37</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>25</v>
@@ -3609,11 +3579,11 @@
         <v>37</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>24</v>
@@ -3628,7 +3598,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="44" t="s">
@@ -3647,7 +3617,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="44" t="s">
@@ -3659,7 +3629,7 @@
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>20</v>
@@ -3673,7 +3643,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>24</v>
@@ -3690,7 +3660,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>30</v>
@@ -3707,7 +3677,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>24</v>
@@ -3724,7 +3694,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>25</v>
@@ -3741,7 +3711,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>26</v>
@@ -3751,7 +3721,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I53" s="33" t="s">
         <v>20</v>
@@ -3765,7 +3735,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>24</v>
@@ -3782,7 +3752,7 @@
         <v>37</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>26</v>
@@ -3792,7 +3762,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>20</v>
@@ -3806,7 +3776,7 @@
         <v>37</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="44" t="s">
@@ -3827,7 +3797,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="44" t="s">
@@ -3839,7 +3809,7 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I57" s="33" t="s">
         <v>20</v>
@@ -3880,7 +3850,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>20</v>
@@ -3904,7 +3874,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>20</v>
@@ -3928,7 +3898,7 @@
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>21</v>
@@ -3952,7 +3922,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>21</v>
@@ -4000,7 +3970,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>21</v>

--- a/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="81">
   <si>
     <t>FICHA</t>
   </si>
@@ -187,9 +187,6 @@
     <t xml:space="preserve">La Italia fascista </t>
   </si>
   <si>
-    <t>Identifica las características del fascismo</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje:  La Italia fascista</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>La Alemania nazi</t>
   </si>
   <si>
-    <t>Cronología: El periodo de entreguerras</t>
-  </si>
-  <si>
     <t>Proyecto: Análisis del trato a los judíos en la Alemania nazi</t>
   </si>
   <si>
@@ -263,6 +257,18 @@
   </si>
   <si>
     <t>Autoevaluación</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: los felices años veinte</t>
+  </si>
+  <si>
+    <t>Distingue las características del fascismo</t>
+  </si>
+  <si>
+    <t>Cronología: el período de entreguerras</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje:  la Italia fascista</t>
   </si>
 </sst>
 </file>
@@ -907,7 +913,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1017,6 +1023,7 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1689,7 +1696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1714,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1730,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="A15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,13 +1823,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>67</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>69</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
@@ -1842,13 +1849,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3" s="17">
         <v>2</v>
@@ -1862,13 +1869,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="57" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
@@ -1882,13 +1889,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="17">
         <v>4</v>
@@ -1902,33 +1909,33 @@
         <v>19</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>69</v>
+      <c r="C7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="F7" s="17">
         <v>6</v>
@@ -1942,33 +1949,33 @@
         <v>19</v>
       </c>
       <c r="C8" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>70</v>
-      </c>
       <c r="E8" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>69</v>
+      <c r="C9" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="F9" s="17">
         <v>8</v>
@@ -1983,13 +1990,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="17">
         <v>9</v>
@@ -2004,13 +2011,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="17">
         <v>10</v>
@@ -2025,13 +2032,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12" s="17">
         <v>11</v>
@@ -2046,13 +2053,13 @@
         <v>19</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="17">
         <v>12</v>
@@ -2066,33 +2073,33 @@
         <v>19</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="17">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>69</v>
+      <c r="C15" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>67</v>
       </c>
       <c r="F15" s="17">
         <v>14</v>
@@ -2106,13 +2113,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="17">
         <v>15</v>
@@ -2126,13 +2133,13 @@
         <v>19</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="17">
         <v>16</v>
@@ -2146,13 +2153,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18" s="17">
         <v>17</v>
@@ -2174,7 +2181,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2203,7 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>21</v>
@@ -2207,7 +2214,7 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>21</v>
@@ -2229,7 +2236,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -2270,7 +2277,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,7 +2303,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>20</v>
@@ -2362,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
@@ -2373,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -2384,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
@@ -2395,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -2406,7 +2413,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
@@ -2417,7 +2424,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -2429,7 +2436,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -2440,7 +2447,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -2451,7 +2458,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
@@ -2462,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -2473,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
@@ -2484,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
@@ -2495,7 +2502,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>21</v>
@@ -2617,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="E43" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2813,7 +2820,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>20</v>
@@ -3145,7 +3152,7 @@
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" s="42" t="s">
         <v>20</v>
@@ -3237,7 +3244,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I29" s="43" t="s">
         <v>20</v>
@@ -3261,7 +3268,7 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>20</v>
@@ -3306,7 +3313,7 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="I32" s="43" t="s">
         <v>20</v>
@@ -3320,7 +3327,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>24</v>
@@ -3337,11 +3344,11 @@
         <v>37</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>24</v>
@@ -3356,11 +3363,11 @@
         <v>37</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>25</v>
@@ -3375,11 +3382,11 @@
         <v>37</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>24</v>
@@ -3394,11 +3401,11 @@
         <v>37</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>30</v>
@@ -3413,11 +3420,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="42"/>
       <c r="D38" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>24</v>
@@ -3432,11 +3439,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>26</v>
@@ -3444,7 +3451,7 @@
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="42" t="s">
         <v>20</v>
@@ -3458,11 +3465,11 @@
         <v>37</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>24</v>
@@ -3477,11 +3484,11 @@
         <v>37</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" s="42" t="s">
         <v>25</v>
@@ -3496,7 +3503,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="44" t="s">
@@ -3515,7 +3522,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="44" t="s">
@@ -3527,7 +3534,7 @@
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I43" s="42" t="s">
         <v>20</v>
@@ -3541,11 +3548,11 @@
         <v>37</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>24</v>
@@ -3560,11 +3567,11 @@
         <v>37</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>25</v>
@@ -3579,11 +3586,11 @@
         <v>37</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>24</v>
@@ -3598,7 +3605,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="44" t="s">
@@ -3617,7 +3624,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="44" t="s">
@@ -3629,7 +3636,7 @@
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>20</v>
@@ -3643,7 +3650,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>24</v>
@@ -3660,7 +3667,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>30</v>
@@ -3677,7 +3684,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>24</v>
@@ -3694,7 +3701,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>25</v>
@@ -3711,7 +3718,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>26</v>
@@ -3721,7 +3728,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I53" s="33" t="s">
         <v>20</v>
@@ -3735,7 +3742,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>24</v>
@@ -3752,7 +3759,7 @@
         <v>37</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>26</v>
@@ -3762,7 +3769,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>20</v>
@@ -3776,7 +3783,7 @@
         <v>37</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="44" t="s">
@@ -3797,7 +3804,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="44" t="s">
@@ -3809,7 +3816,7 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I57" s="33" t="s">
         <v>20</v>
@@ -3850,7 +3857,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>20</v>
@@ -3874,7 +3881,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>20</v>
@@ -3898,7 +3905,7 @@
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>21</v>
@@ -3922,7 +3929,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>21</v>
@@ -3970,7 +3977,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>21</v>

--- a/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9255" tabRatio="729" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="9258" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -13,20 +18,20 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="15" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="16" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="79">
   <si>
     <t>FICHA</t>
   </si>
@@ -187,9 +192,6 @@
     <t xml:space="preserve">La Italia fascista </t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje:  La Italia fascista</t>
-  </si>
-  <si>
     <t>La década de 1930</t>
   </si>
   <si>
@@ -259,16 +261,13 @@
     <t>Autoevaluación</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los felices años veinte</t>
-  </si>
-  <si>
     <t>Distingue las características del fascismo</t>
   </si>
   <si>
     <t>Cronología: el período de entreguerras</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje:  la Italia fascista</t>
+    <t>Los felices años 20</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1706,41 +1705,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="104.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="104.265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.45" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -1780,22 +1779,22 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="A15:E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.73046875" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -1823,13 +1822,13 @@
         <v>19</v>
       </c>
       <c r="C2" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="17">
         <v>1</v>
@@ -1841,7 +1840,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="57" t="s">
         <v>31</v>
       </c>
@@ -1849,19 +1848,19 @@
         <v>19</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="57" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>31</v>
       </c>
@@ -1869,19 +1868,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="57" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="57" t="s">
         <v>31</v>
       </c>
@@ -1889,19 +1888,19 @@
         <v>19</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="57" t="s">
         <v>31</v>
       </c>
@@ -1909,19 +1908,19 @@
         <v>19</v>
       </c>
       <c r="C6" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F6" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
         <v>31</v>
       </c>
@@ -1929,19 +1928,19 @@
         <v>19</v>
       </c>
       <c r="C7" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="59" t="s">
         <v>66</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>67</v>
       </c>
       <c r="F7" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="57" t="s">
         <v>31</v>
       </c>
@@ -1949,19 +1948,19 @@
         <v>19</v>
       </c>
       <c r="C8" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F8" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="59" t="s">
         <v>31</v>
       </c>
@@ -1969,20 +1968,20 @@
         <v>19</v>
       </c>
       <c r="C9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="59" t="s">
         <v>66</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>67</v>
       </c>
       <c r="F9" s="17">
         <v>8</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="57" t="s">
         <v>31</v>
       </c>
@@ -1990,20 +1989,20 @@
         <v>19</v>
       </c>
       <c r="C10" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F10" s="17">
         <v>9</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="57" t="s">
         <v>31</v>
       </c>
@@ -2011,20 +2010,20 @@
         <v>19</v>
       </c>
       <c r="C11" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F11" s="17">
         <v>10</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="57" t="s">
         <v>31</v>
       </c>
@@ -2032,20 +2031,20 @@
         <v>19</v>
       </c>
       <c r="C12" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F12" s="17">
         <v>11</v>
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="57" t="s">
         <v>31</v>
       </c>
@@ -2053,19 +2052,19 @@
         <v>19</v>
       </c>
       <c r="C13" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F13" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="57" t="s">
         <v>31</v>
       </c>
@@ -2073,19 +2072,19 @@
         <v>19</v>
       </c>
       <c r="C14" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F14" s="17">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="59" t="s">
         <v>31</v>
       </c>
@@ -2093,19 +2092,19 @@
         <v>19</v>
       </c>
       <c r="C15" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="59" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="59" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="17">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="57" t="s">
         <v>31</v>
       </c>
@@ -2113,19 +2112,19 @@
         <v>19</v>
       </c>
       <c r="C16" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F16" s="17">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="57" t="s">
         <v>31</v>
       </c>
@@ -2133,19 +2132,19 @@
         <v>19</v>
       </c>
       <c r="C17" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F17" s="17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="57" t="s">
         <v>31</v>
       </c>
@@ -2153,13 +2152,13 @@
         <v>19</v>
       </c>
       <c r="C18" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="57" t="s">
         <v>66</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>67</v>
       </c>
       <c r="F18" s="17">
         <v>17</v>
@@ -2184,13 +2183,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="66.1328125" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -2201,9 +2200,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>21</v>
@@ -2212,9 +2211,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>21</v>
@@ -2223,7 +2222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
@@ -2234,9 +2233,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>21</v>
@@ -2245,12 +2244,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="56"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -2271,7 +2270,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D37"/>
@@ -2280,14 +2279,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="92.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.265625" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -2298,18 +2297,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -2342,18 +2341,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2364,151 +2363,151 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2530,77 +2529,77 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="25"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
@@ -2624,24 +2623,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="3" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="64.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.86328125" style="3" customWidth="1"/>
+    <col min="6" max="7" width="17.86328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="64.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
@@ -2687,7 +2686,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -2706,7 +2705,7 @@
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -2725,7 +2724,7 @@
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A5" s="21" t="s">
         <v>37</v>
       </c>
@@ -2744,7 +2743,7 @@
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -2763,7 +2762,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
     </row>
-    <row r="7" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2781,7 @@
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
-    <row r="8" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A8" s="21" t="s">
         <v>37</v>
       </c>
@@ -2803,7 +2802,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
@@ -2820,7 +2819,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>20</v>
@@ -2829,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A10" s="21" t="s">
         <v>37</v>
       </c>
@@ -2848,7 +2847,7 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>37</v>
       </c>
@@ -2867,7 +2866,7 @@
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
     </row>
-    <row r="12" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -2909,7 +2908,7 @@
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
@@ -2928,7 +2927,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
@@ -2973,7 +2972,7 @@
       <c r="H16" s="54"/>
       <c r="I16" s="41"/>
     </row>
-    <row r="17" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A17" s="21" t="s">
         <v>37</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="35" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
@@ -3018,7 +3017,7 @@
       <c r="H18" s="54"/>
       <c r="I18" s="37"/>
     </row>
-    <row r="19" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="20" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A19" s="21" t="s">
         <v>37</v>
       </c>
@@ -3037,7 +3036,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="20" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A20" s="21" t="s">
         <v>37</v>
       </c>
@@ -3056,7 +3055,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
     </row>
-    <row r="21" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="20" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A21" s="21" t="s">
         <v>37</v>
       </c>
@@ -3075,7 +3074,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
     </row>
-    <row r="22" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="20" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A22" s="21" t="s">
         <v>37</v>
       </c>
@@ -3094,7 +3093,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
     </row>
-    <row r="23" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="20" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A23" s="21" t="s">
         <v>37</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="20" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
@@ -3137,7 +3136,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="20" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A25" s="21" t="s">
         <v>37</v>
       </c>
@@ -3152,7 +3151,7 @@
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="I25" s="42" t="s">
         <v>20</v>
@@ -3161,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
@@ -3182,7 +3181,7 @@
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
     </row>
-    <row r="27" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A28" s="21" t="s">
         <v>37</v>
       </c>
@@ -3229,7 +3228,7 @@
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A29" s="21" t="s">
         <v>37</v>
       </c>
@@ -3244,7 +3243,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="43" t="s">
         <v>20</v>
@@ -3253,7 +3252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A30" s="21" t="s">
         <v>37</v>
       </c>
@@ -3268,7 +3267,7 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>20</v>
@@ -3277,7 +3276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A31" s="21" t="s">
         <v>37</v>
       </c>
@@ -3296,7 +3295,7 @@
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
     </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A32" s="21" t="s">
         <v>37</v>
       </c>
@@ -3313,7 +3312,7 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I32" s="43" t="s">
         <v>20</v>
@@ -3322,12 +3321,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A33" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>24</v>
@@ -3339,16 +3338,16 @@
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:10" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="36" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A34" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="42"/>
       <c r="D34" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>24</v>
@@ -3358,16 +3357,16 @@
       <c r="H34" s="52"/>
       <c r="I34" s="42"/>
     </row>
-    <row r="35" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>25</v>
@@ -3377,16 +3376,16 @@
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
     </row>
-    <row r="36" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>24</v>
@@ -3396,16 +3395,16 @@
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
     </row>
-    <row r="37" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="42"/>
       <c r="D37" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>30</v>
@@ -3415,16 +3414,16 @@
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
     </row>
-    <row r="38" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="42"/>
       <c r="D38" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>24</v>
@@ -3434,16 +3433,16 @@
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
     </row>
-    <row r="39" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="42"/>
       <c r="D39" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>26</v>
@@ -3451,7 +3450,7 @@
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
       <c r="H39" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I39" s="42" t="s">
         <v>20</v>
@@ -3460,16 +3459,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="42"/>
       <c r="D40" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>24</v>
@@ -3479,16 +3478,16 @@
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
     </row>
-    <row r="41" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="42"/>
       <c r="D41" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="42" t="s">
         <v>25</v>
@@ -3498,12 +3497,12 @@
       <c r="H41" s="42"/>
       <c r="I41" s="42"/>
     </row>
-    <row r="42" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A42" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="42"/>
       <c r="D42" s="44" t="s">
@@ -3517,12 +3516,12 @@
       <c r="H42" s="42"/>
       <c r="I42" s="42"/>
     </row>
-    <row r="43" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A43" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="44" t="s">
@@ -3534,7 +3533,7 @@
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
       <c r="H43" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="42" t="s">
         <v>20</v>
@@ -3543,16 +3542,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A44" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>24</v>
@@ -3562,16 +3561,16 @@
       <c r="H44" s="42"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A45" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>25</v>
@@ -3581,16 +3580,16 @@
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A46" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>24</v>
@@ -3600,12 +3599,12 @@
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A47" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="44" t="s">
@@ -3619,12 +3618,12 @@
       <c r="H47" s="52"/>
       <c r="I47" s="42"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A48" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="44" t="s">
@@ -3636,7 +3635,7 @@
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I48" s="33" t="s">
         <v>20</v>
@@ -3645,12 +3644,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A49" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>24</v>
@@ -3662,12 +3661,12 @@
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
     </row>
-    <row r="50" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A50" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>30</v>
@@ -3679,12 +3678,12 @@
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
     </row>
-    <row r="51" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A51" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>24</v>
@@ -3696,12 +3695,12 @@
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
     </row>
-    <row r="52" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A52" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>25</v>
@@ -3713,12 +3712,12 @@
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
     </row>
-    <row r="53" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A53" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>26</v>
@@ -3728,7 +3727,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I53" s="33" t="s">
         <v>20</v>
@@ -3737,12 +3736,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A54" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>24</v>
@@ -3754,12 +3753,12 @@
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
     </row>
-    <row r="55" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A55" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>26</v>
@@ -3769,7 +3768,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>20</v>
@@ -3778,12 +3777,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A56" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="44" t="s">
@@ -3799,12 +3798,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A57" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="44" t="s">
@@ -3816,7 +3815,7 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I57" s="33" t="s">
         <v>20</v>
@@ -3825,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="38" customFormat="1" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A58" s="21" t="s">
         <v>37</v>
       </c>
@@ -3842,7 +3841,7 @@
       <c r="H58" s="33"/>
       <c r="I58" s="33"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="21" t="s">
         <v>37</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>20</v>
@@ -3866,7 +3865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="21" t="s">
         <v>37</v>
       </c>
@@ -3881,7 +3880,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>20</v>
@@ -3890,7 +3889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="21" t="s">
         <v>37</v>
       </c>
@@ -3905,7 +3904,7 @@
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>21</v>
@@ -3914,7 +3913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="21" t="s">
         <v>37</v>
       </c>
@@ -3929,7 +3928,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>21</v>
@@ -3938,7 +3937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="21" t="s">
         <v>37</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="21" t="s">
         <v>37</v>
       </c>
@@ -3977,7 +3976,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>21</v>

--- a/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion02/EsqueletoGuion_CS_09_02_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="80">
   <si>
     <t>FICHA</t>
   </si>
@@ -259,16 +259,13 @@
     <t>Autoevaluación</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los felices años veinte</t>
-  </si>
-  <si>
     <t>Distingue las características del fascismo</t>
   </si>
   <si>
     <t>Cronología: el período de entreguerras</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje:  la Italia fascista</t>
+    <t>Los felices años 20</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1777,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="A15:E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1909,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E6" s="57" t="s">
         <v>67</v>
@@ -1932,7 +1929,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E7" s="59" t="s">
         <v>67</v>
@@ -1972,7 +1969,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="59" t="s">
         <v>67</v>
@@ -2096,7 +2093,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>67</v>
@@ -2277,7 +2274,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>20</v>
@@ -2380,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>20</v>
@@ -2447,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>20</v>
@@ -2624,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3149,7 @@
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I25" s="42" t="s">
         <v>20</v>
@@ -3268,7 +3265,7 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>20</v>
@@ -3313,7 +3310,7 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="43" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I32" s="43" t="s">
         <v>20</v>
@@ -3769,7 +3766,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>20</v>
